--- a/Excel2Json/Test/global_config.xlsx
+++ b/Excel2Json/Test/global_config.xlsx
@@ -103,10 +103,6 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -262,32 +258,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>vector&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -323,6 +293,38 @@
   </si>
   <si>
     <t>187|0|-362</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>float&gt;;10</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +638,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -946,12 +954,12 @@
   <dimension ref="A1:AK972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
@@ -974,40 +982,40 @@
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -1069,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1133,11 +1141,11 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
+      <c r="L3" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1165,8 +1173,8 @@
       <c r="AK3" s="10"/>
     </row>
     <row r="4" spans="1:37" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
+      <c r="A4" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -1187,22 +1195,22 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1264,7 +1272,7 @@
         <v>20000</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="17">
         <v>1</v>
